--- a/Results/UnivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NanMask#True/performances_train.xlsx
+++ b/Results/UnivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NanMask#True/performances_train.xlsx
@@ -584,46 +584,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6712675232304693</v>
+        <v>0.6719605263157895</v>
       </c>
       <c r="C4">
-        <v>0.002959321712724394</v>
+        <v>0.002616330426864155</v>
       </c>
       <c r="D4">
-        <v>0.4271716263728056</v>
+        <v>0.4318959578522495</v>
       </c>
       <c r="E4">
-        <v>0.002656189382074792</v>
+        <v>0.002857041707671537</v>
       </c>
       <c r="F4">
-        <v>0.632695652173913</v>
+        <v>0.6227067669172933</v>
       </c>
       <c r="G4">
-        <v>0.003630193086582301</v>
+        <v>0.003848429435139633</v>
       </c>
       <c r="H4">
-        <v>0.3224709017439157</v>
+        <v>0.3306156690453373</v>
       </c>
       <c r="I4">
-        <v>0.002191519174925716</v>
+        <v>0.00232045174650225</v>
       </c>
       <c r="J4">
-        <v>0.8425205414996342</v>
+        <v>0.8340513851901875</v>
       </c>
       <c r="K4">
-        <v>0.001620920110489421</v>
+        <v>0.001771566590833551</v>
       </c>
       <c r="L4">
-        <v>0.5964379947229552</v>
+        <v>0.6006190476190475</v>
       </c>
       <c r="M4">
-        <v>0.002488519632299124</v>
+        <v>0.002126206529308283</v>
       </c>
       <c r="N4">
-        <v>0.6048785425101214</v>
+        <v>0.6059312839059674</v>
       </c>
       <c r="O4">
-        <v>0.002392126506225889</v>
+        <v>0.002329642880625094</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -631,28 +631,34 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5550418722037396</v>
+        <v>0.5592731829573934</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0.3892617449664428</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>0.7565217391304345</v>
+        <v>0.7518796992481204</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0.353562005277045</v>
-      </c>
-      <c r="M5">
+      <c r="H5">
+        <v>0.2732240437158469</v>
+      </c>
+      <c r="I5">
         <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.8235294117647061</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.4593128390596747</v>
+      </c>
+      <c r="O5">
+        <v>5.551115123125783E-17</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -660,46 +666,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5601689539845462</v>
+        <v>0.5598962057432822</v>
       </c>
       <c r="C6">
-        <v>0.003302860775508343</v>
+        <v>0.003802898855161829</v>
       </c>
       <c r="D6">
-        <v>0.3869302114973644</v>
+        <v>0.3860550742063251</v>
       </c>
       <c r="E6">
-        <v>0.002698235399302085</v>
+        <v>0.003143495269845975</v>
       </c>
       <c r="F6">
-        <v>0.633217391304348</v>
+        <v>0.6297391304347826</v>
       </c>
       <c r="G6">
-        <v>0.006038946054348404</v>
+        <v>0.00709998387953692</v>
       </c>
       <c r="H6">
-        <v>0.2786928125011891</v>
+        <v>0.27852069164062</v>
       </c>
       <c r="I6">
-        <v>0.001848376137268404</v>
+        <v>0.002161503891625727</v>
       </c>
       <c r="J6">
-        <v>0.8172919990697121</v>
+        <v>0.8166031363890645</v>
       </c>
       <c r="K6">
-        <v>0.002191720266583097</v>
+        <v>0.002524372346733639</v>
       </c>
       <c r="L6">
-        <v>0.500053050397878</v>
+        <v>0.5023342175066313</v>
       </c>
       <c r="M6">
-        <v>0.003793471113409469</v>
+        <v>0.004577816289836029</v>
       </c>
       <c r="N6">
-        <v>0.5311788617886178</v>
+        <v>0.5321138211382115</v>
       </c>
       <c r="O6">
-        <v>0.002611280499143276</v>
+        <v>0.00310757233398995</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -707,46 +713,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5631207729468598</v>
+        <v>0.5625895780120156</v>
       </c>
       <c r="C7">
-        <v>0.00336064297332539</v>
+        <v>0.002967481411925266</v>
       </c>
       <c r="D7">
-        <v>0.3604741355689137</v>
+        <v>0.3675297647722791</v>
       </c>
       <c r="E7">
-        <v>0.002685748009625455</v>
+        <v>0.002642013711671665</v>
       </c>
       <c r="F7">
-        <v>0.5569565217391304</v>
+        <v>0.5558646616541354</v>
       </c>
       <c r="G7">
-        <v>0.004564171818995821</v>
+        <v>0.004403540417267315</v>
       </c>
       <c r="H7">
-        <v>0.2665173970520694</v>
+        <v>0.2745666736261669</v>
       </c>
       <c r="I7">
-        <v>0.002013764757808678</v>
+        <v>0.002001821346428345</v>
       </c>
       <c r="J7">
-        <v>0.798324579861418</v>
+        <v>0.7903043382982495</v>
       </c>
       <c r="K7">
-        <v>0.00190992962496217</v>
+        <v>0.00190332438659524</v>
       </c>
       <c r="L7">
-        <v>0.5335714285714286</v>
+        <v>0.5326076555023924</v>
       </c>
       <c r="M7">
-        <v>0.002715518118292959</v>
+        <v>0.002661990245934165</v>
       </c>
       <c r="N7">
-        <v>0.539026369168357</v>
+        <v>0.5382214156079854</v>
       </c>
       <c r="O7">
-        <v>0.002398974550403943</v>
+        <v>0.002348518660758803</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -754,46 +760,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6348387893325809</v>
+        <v>0.6155917005432241</v>
       </c>
       <c r="C8">
-        <v>0.003161551336672175</v>
+        <v>0.003071775217381223</v>
       </c>
       <c r="D8">
-        <v>0.4092413936252863</v>
+        <v>0.4189851847665075</v>
       </c>
       <c r="E8">
-        <v>0.002729680850998395</v>
+        <v>0.002722920180875277</v>
       </c>
       <c r="F8">
-        <v>0.6085964912280702</v>
+        <v>0.6712781954887217</v>
       </c>
       <c r="G8">
-        <v>0.003659194662361309</v>
+        <v>0.006762580880617541</v>
       </c>
       <c r="H8">
-        <v>0.3084113460835557</v>
+        <v>0.3047962506166212</v>
       </c>
       <c r="I8">
-        <v>0.002536509528633546</v>
+        <v>0.002154841678972064</v>
       </c>
       <c r="J8">
-        <v>0.8294479608166035</v>
+        <v>0.8306577300330984</v>
       </c>
       <c r="K8">
-        <v>0.001686419705260733</v>
+        <v>0.002351712035561171</v>
       </c>
       <c r="L8">
-        <v>0.5822252010723861</v>
+        <v>0.5123205741626794</v>
       </c>
       <c r="M8">
-        <v>0.004383444719319396</v>
+        <v>0.005813142569350727</v>
       </c>
       <c r="N8">
-        <v>0.5883983572895278</v>
+        <v>0.5506896551724139</v>
       </c>
       <c r="O8">
-        <v>0.00344184252482671</v>
+        <v>0.003684989416666284</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -801,46 +807,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7038210393483996</v>
+        <v>0.682640171858217</v>
       </c>
       <c r="C9">
-        <v>0.003096744628483417</v>
+        <v>0.003190387437362552</v>
       </c>
       <c r="D9">
-        <v>0.4727588251266508</v>
+        <v>0.4651562675074079</v>
       </c>
       <c r="E9">
-        <v>0.003081728734806666</v>
+        <v>0.003050272983471658</v>
       </c>
       <c r="F9">
-        <v>0.6620000000000001</v>
+        <v>0.6474436090225564</v>
       </c>
       <c r="G9">
-        <v>0.003867117018845567</v>
+        <v>0.003684366927833138</v>
       </c>
       <c r="H9">
-        <v>0.3676957674582432</v>
+        <v>0.3630167376280278</v>
       </c>
       <c r="I9">
-        <v>0.00262817277233407</v>
+        <v>0.002690808637846209</v>
       </c>
       <c r="J9">
-        <v>0.8644733436579729</v>
+        <v>0.8514152093669205</v>
       </c>
       <c r="K9">
-        <v>0.001634642080105109</v>
+        <v>0.001667072225372213</v>
       </c>
       <c r="L9">
-        <v>0.6543799472295515</v>
+        <v>0.6399761904761905</v>
       </c>
       <c r="M9">
-        <v>0.002322935514002311</v>
+        <v>0.002657504731826688</v>
       </c>
       <c r="N9">
-        <v>0.6561538461538463</v>
+        <v>0.6417721518987343</v>
       </c>
       <c r="O9">
-        <v>0.002447567757914881</v>
+        <v>0.002615158479344237</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -848,46 +854,46 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6925500745669383</v>
+        <v>0.6803456856426782</v>
       </c>
       <c r="C10">
-        <v>0.003063287671642212</v>
+        <v>0.002898158057521139</v>
       </c>
       <c r="D10">
-        <v>0.4598600119874793</v>
+        <v>0.4544970187641447</v>
       </c>
       <c r="E10">
-        <v>0.003052769063001171</v>
+        <v>0.002838597717300884</v>
       </c>
       <c r="F10">
-        <v>0.6623478260869566</v>
+        <v>0.6491729323308272</v>
       </c>
       <c r="G10">
-        <v>0.003815449807671234</v>
+        <v>0.00358116971319844</v>
       </c>
       <c r="H10">
-        <v>0.3522253892505051</v>
+        <v>0.3496784541356057</v>
       </c>
       <c r="I10">
-        <v>0.002581304459898959</v>
+        <v>0.002410115176414429</v>
       </c>
       <c r="J10">
-        <v>0.8601033689572199</v>
+        <v>0.8474713530245827</v>
       </c>
       <c r="K10">
-        <v>0.001705626178615027</v>
+        <v>0.001676457022641298</v>
       </c>
       <c r="L10">
-        <v>0.6301583113456465</v>
+        <v>0.6174761904761904</v>
       </c>
       <c r="M10">
-        <v>0.002468053364380274</v>
+        <v>0.002415690654211766</v>
       </c>
       <c r="N10">
-        <v>0.6376518218623483</v>
+        <v>0.6250994575045208</v>
       </c>
       <c r="O10">
-        <v>0.00256523860224056</v>
+        <v>0.002453193701243639</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -895,46 +901,46 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5387730870712402</v>
+        <v>0.5278269781596849</v>
       </c>
       <c r="C11">
-        <v>0.002964665480736706</v>
+        <v>0.003443742042064546</v>
       </c>
       <c r="D11">
-        <v>0.3342995365327343</v>
+        <v>0.3372962509739259</v>
       </c>
       <c r="E11">
-        <v>0.00260111388177553</v>
+        <v>0.0025467598407104</v>
       </c>
       <c r="F11">
-        <v>0.5275652173913042</v>
+        <v>0.5181203007518798</v>
       </c>
       <c r="G11">
-        <v>0.004255118292388782</v>
+        <v>0.003927734375246406</v>
       </c>
       <c r="H11">
-        <v>0.2446992267539046</v>
+        <v>0.2500599829860167</v>
       </c>
       <c r="I11">
-        <v>0.001952036880482677</v>
+        <v>0.001952701831634027</v>
       </c>
       <c r="J11">
-        <v>0.7791338212800152</v>
+        <v>0.7688937040242583</v>
       </c>
       <c r="K11">
-        <v>0.001934239310526831</v>
+        <v>0.001925295480599054</v>
       </c>
       <c r="L11">
-        <v>0.505778364116095</v>
+        <v>0.5078095238095238</v>
       </c>
       <c r="M11">
-        <v>0.002527509818522011</v>
+        <v>0.002436931620519278</v>
       </c>
       <c r="N11">
-        <v>0.5108502024291498</v>
+        <v>0.5102893309222423</v>
       </c>
       <c r="O11">
-        <v>0.002374227885123315</v>
+        <v>0.002356293261299824</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -942,46 +948,46 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6647315590225995</v>
+        <v>0.6429738632295025</v>
       </c>
       <c r="C12">
-        <v>0.003175556047600114</v>
+        <v>0.003212930199512964</v>
       </c>
       <c r="D12">
-        <v>0.4179394537021935</v>
+        <v>0.4075485555249842</v>
       </c>
       <c r="E12">
-        <v>0.003135621541698108</v>
+        <v>0.002615949584677146</v>
       </c>
       <c r="F12">
-        <v>0.6169565217391304</v>
+        <v>0.6005263157894738</v>
       </c>
       <c r="G12">
-        <v>0.004069592936464583</v>
+        <v>0.003838338878175418</v>
       </c>
       <c r="H12">
-        <v>0.3160777849919136</v>
+        <v>0.3085234064563114</v>
       </c>
       <c r="I12">
-        <v>0.002685664017290257</v>
+        <v>0.002248636474652455</v>
       </c>
       <c r="J12">
-        <v>0.8363877187302673</v>
+        <v>0.8192131524964433</v>
       </c>
       <c r="K12">
-        <v>0.001876283703712289</v>
+        <v>0.001701921215161661</v>
       </c>
       <c r="L12">
-        <v>0.5945118733509235</v>
+        <v>0.5734285714285714</v>
       </c>
       <c r="M12">
-        <v>0.003430161361187789</v>
+        <v>0.003490257223371818</v>
       </c>
       <c r="N12">
-        <v>0.5997368421052632</v>
+        <v>0.5799457504520795</v>
       </c>
       <c r="O12">
-        <v>0.003095441226835471</v>
+        <v>0.002831841644522437</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -989,46 +995,46 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5321554433864862</v>
+        <v>0.5249830423313654</v>
       </c>
       <c r="C13">
-        <v>0.003022636525757072</v>
+        <v>0.002841674079762768</v>
       </c>
       <c r="D13">
-        <v>0.3247053642837636</v>
+        <v>0.3405437488788363</v>
       </c>
       <c r="E13">
-        <v>0.002765051370939631</v>
+        <v>0.002691684571497099</v>
       </c>
       <c r="F13">
-        <v>0.5069565217391304</v>
+        <v>0.5206015037593985</v>
       </c>
       <c r="G13">
-        <v>0.004968728839661263</v>
+        <v>0.004346318951454098</v>
       </c>
       <c r="H13">
-        <v>0.2389089448790104</v>
+        <v>0.2530501257378086</v>
       </c>
       <c r="I13">
-        <v>0.002037079542551196</v>
+        <v>0.001995461977852331</v>
       </c>
       <c r="J13">
-        <v>0.7731261718765885</v>
+        <v>0.7709506062817951</v>
       </c>
       <c r="K13">
-        <v>0.00197335081335126</v>
+        <v>0.001963206176183396</v>
       </c>
       <c r="L13">
-        <v>0.5098680738786281</v>
+        <v>0.5121957040572792</v>
       </c>
       <c r="M13">
-        <v>0.003285236467570507</v>
+        <v>0.002058040664564942</v>
       </c>
       <c r="N13">
-        <v>0.5091902834008097</v>
+        <v>0.5142210144927536</v>
       </c>
       <c r="O13">
-        <v>0.002638778425448685</v>
+        <v>0.00215819431065023</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1036,46 +1042,46 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5453961480798063</v>
+        <v>0.54772443699176</v>
       </c>
       <c r="C14">
-        <v>0.003120566337382003</v>
+        <v>0.003109357209779451</v>
       </c>
       <c r="D14">
-        <v>0.35713404931336</v>
+        <v>0.3636528577975694</v>
       </c>
       <c r="E14">
-        <v>0.002728830622167167</v>
+        <v>0.00262397839630546</v>
       </c>
       <c r="F14">
-        <v>0.5620869565217391</v>
+        <v>0.5558646616541353</v>
       </c>
       <c r="G14">
-        <v>0.004545322777892324</v>
+        <v>0.004559064367261501</v>
       </c>
       <c r="H14">
-        <v>0.2617277315791398</v>
+        <v>0.2702447621692751</v>
       </c>
       <c r="I14">
-        <v>0.001997884556657059</v>
+        <v>0.001892712953506348</v>
       </c>
       <c r="J14">
-        <v>0.7944749264810043</v>
+        <v>0.7863622960371802</v>
       </c>
       <c r="K14">
-        <v>0.001999113112644113</v>
+        <v>0.001909993651426634</v>
       </c>
       <c r="L14">
-        <v>0.5163395225464191</v>
+        <v>0.521294964028777</v>
       </c>
       <c r="M14">
-        <v>0.001995019689746913</v>
+        <v>0.002025319098887146</v>
       </c>
       <c r="N14">
-        <v>0.5270325203252032</v>
+        <v>0.5296545454545454</v>
       </c>
       <c r="O14">
-        <v>0.0021459421215414</v>
+        <v>0.001979786069156164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1083,46 +1089,46 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5740978203083466</v>
+        <v>0.5739148877941982</v>
       </c>
       <c r="C15">
-        <v>0.003184218817414264</v>
+        <v>0.003281518853773702</v>
       </c>
       <c r="D15">
-        <v>0.3813381498652552</v>
+        <v>0.3851973086192063</v>
       </c>
       <c r="E15">
-        <v>0.002916781866990625</v>
+        <v>0.002800254261949853</v>
       </c>
       <c r="F15">
-        <v>0.5843636363636362</v>
+        <v>0.5754761904761904</v>
       </c>
       <c r="G15">
-        <v>0.004790229870795693</v>
+        <v>0.004523862366632492</v>
       </c>
       <c r="H15">
-        <v>0.2830928117616749</v>
+        <v>0.2895641631545617</v>
       </c>
       <c r="I15">
-        <v>0.002298925163188026</v>
+        <v>0.002242713336615298</v>
       </c>
       <c r="J15">
-        <v>0.7966076575822053</v>
+        <v>0.7881057744472925</v>
       </c>
       <c r="K15">
-        <v>0.002215846833247825</v>
+        <v>0.00209154389363575</v>
       </c>
       <c r="L15">
-        <v>0.5237426900584796</v>
+        <v>0.5278514588859416</v>
       </c>
       <c r="M15">
-        <v>0.003609856462239214</v>
+        <v>0.003527870195754734</v>
       </c>
       <c r="N15">
-        <v>0.5384955752212389</v>
+        <v>0.5397813121272366</v>
       </c>
       <c r="O15">
-        <v>0.003000792306384392</v>
+        <v>0.002872377035463614</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1130,46 +1136,46 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.60370540683806</v>
+        <v>0.5986104812295289</v>
       </c>
       <c r="C16">
-        <v>0.002987682260838453</v>
+        <v>0.003776727723671325</v>
       </c>
       <c r="D16">
-        <v>0.3860505429934038</v>
+        <v>0.3965182863819786</v>
       </c>
       <c r="E16">
-        <v>0.00306335923622153</v>
+        <v>0.003738544452708326</v>
       </c>
       <c r="F16">
-        <v>0.5729090909090908</v>
+        <v>0.578015873015873</v>
       </c>
       <c r="G16">
-        <v>0.004380971450893223</v>
+        <v>0.004526962154000946</v>
       </c>
       <c r="H16">
-        <v>0.2912678850199802</v>
+        <v>0.3018903514697432</v>
       </c>
       <c r="I16">
-        <v>0.002739736541574334</v>
+        <v>0.003318068429187471</v>
       </c>
       <c r="J16">
-        <v>0.8011008829558207</v>
+        <v>0.7971606723490214</v>
       </c>
       <c r="K16">
-        <v>0.002101368480249666</v>
+        <v>0.002618642815702454</v>
       </c>
       <c r="L16">
-        <v>0.5521865889212827</v>
+        <v>0.5535978835978836</v>
       </c>
       <c r="M16">
-        <v>0.004832996291717517</v>
+        <v>0.004785274347848811</v>
       </c>
       <c r="N16">
-        <v>0.5572185430463577</v>
+        <v>0.5597023809523809</v>
       </c>
       <c r="O16">
-        <v>0.003780893186237977</v>
+        <v>0.004171381687747</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1177,46 +1183,46 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6748119351408826</v>
+        <v>0.664909898530588</v>
       </c>
       <c r="C17">
-        <v>0.002770548646940485</v>
+        <v>0.002962763103595001</v>
       </c>
       <c r="D17">
-        <v>0.4602313890099906</v>
+        <v>0.460592407928163</v>
       </c>
       <c r="E17">
-        <v>0.002683909992741373</v>
+        <v>0.002595570000438696</v>
       </c>
       <c r="F17">
-        <v>0.6712727272727271</v>
+        <v>0.6680952380952381</v>
       </c>
       <c r="G17">
-        <v>0.003936335320730788</v>
+        <v>0.003659994817651002</v>
       </c>
       <c r="H17">
-        <v>0.3502306700802993</v>
+        <v>0.3515184956316842</v>
       </c>
       <c r="I17">
-        <v>0.002296883365910163</v>
+        <v>0.00226257134093466</v>
       </c>
       <c r="J17">
-        <v>0.8499840904966875</v>
+        <v>0.8412001912215782</v>
       </c>
       <c r="K17">
-        <v>0.001713483356852064</v>
+        <v>0.001713072174661656</v>
       </c>
       <c r="L17">
-        <v>0.5991520467836259</v>
+        <v>0.5877718832891248</v>
       </c>
       <c r="M17">
-        <v>0.003166089493624957</v>
+        <v>0.003217675328798464</v>
       </c>
       <c r="N17">
-        <v>0.6167035398230089</v>
+        <v>0.6078926441351888</v>
       </c>
       <c r="O17">
-        <v>0.002645990311152979</v>
+        <v>0.002671269026806145</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1224,46 +1230,46 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5686955077086656</v>
+        <v>0.5683057555471348</v>
       </c>
       <c r="C18">
-        <v>0.003240717205453714</v>
+        <v>0.002987061118587708</v>
       </c>
       <c r="D18">
-        <v>0.3362728005651144</v>
+        <v>0.3482530999521595</v>
       </c>
       <c r="E18">
-        <v>0.003813868929722075</v>
+        <v>0.003763181285829087</v>
       </c>
       <c r="F18">
-        <v>0.4435454545454545</v>
+        <v>0.4507936507936508</v>
       </c>
       <c r="G18">
-        <v>0.006462217775791423</v>
+        <v>0.006605794947328103</v>
       </c>
       <c r="H18">
-        <v>0.2710420807285681</v>
+        <v>0.2840136453136409</v>
       </c>
       <c r="I18">
-        <v>0.002988003049379739</v>
+        <v>0.002903334570944938</v>
       </c>
       <c r="J18">
-        <v>0.7749706398597693</v>
+        <v>0.7716925135460043</v>
       </c>
       <c r="K18">
-        <v>0.001958688905107087</v>
+        <v>0.001934078822791174</v>
       </c>
       <c r="L18">
-        <v>0.6162280701754388</v>
+        <v>0.620159151193634</v>
       </c>
       <c r="M18">
-        <v>0.004330204100049362</v>
+        <v>0.004363272737613832</v>
       </c>
       <c r="N18">
-        <v>0.5742035398230089</v>
+        <v>0.5777335984095429</v>
       </c>
       <c r="O18">
-        <v>0.003092426837685402</v>
+        <v>0.002946662581255755</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1271,46 +1277,46 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6889238555325511</v>
+        <v>0.673039974035809</v>
       </c>
       <c r="C19">
-        <v>0.00295889669003635</v>
+        <v>0.002823400754377703</v>
       </c>
       <c r="D19">
-        <v>0.4536852576586682</v>
+        <v>0.4431388231796259</v>
       </c>
       <c r="E19">
-        <v>0.0033332025417252</v>
+        <v>0.002741891447168687</v>
       </c>
       <c r="F19">
-        <v>0.6273913043478261</v>
+        <v>0.6237593984962405</v>
       </c>
       <c r="G19">
-        <v>0.003615709357919106</v>
+        <v>0.003050255016190606</v>
       </c>
       <c r="H19">
-        <v>0.3554124781030981</v>
+        <v>0.3437990149869913</v>
       </c>
       <c r="I19">
-        <v>0.003111317602029318</v>
+        <v>0.002793366210023684</v>
       </c>
       <c r="J19">
-        <v>0.8520490336550123</v>
+        <v>0.8376506101331277</v>
       </c>
       <c r="K19">
-        <v>0.001672534400569692</v>
+        <v>0.00148434013150478</v>
       </c>
       <c r="L19">
-        <v>0.6533068783068784</v>
+        <v>0.6195923261390887</v>
       </c>
       <c r="M19">
-        <v>0.003467039509461922</v>
+        <v>0.004105337973075662</v>
       </c>
       <c r="N19">
-        <v>0.647261663286004</v>
+        <v>0.6205999999999999</v>
       </c>
       <c r="O19">
-        <v>0.003160067242338638</v>
+        <v>0.003255616406921402</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1318,46 +1324,46 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7051565454343232</v>
+        <v>0.6853316751402525</v>
       </c>
       <c r="C20">
-        <v>0.003018478175172978</v>
+        <v>0.002846259537065743</v>
       </c>
       <c r="D20">
-        <v>0.4859406291371945</v>
+        <v>0.4756606523958002</v>
       </c>
       <c r="E20">
-        <v>0.003232625387303678</v>
+        <v>0.002922949735525537</v>
       </c>
       <c r="F20">
-        <v>0.7000000000000002</v>
+        <v>0.6795967741935484</v>
       </c>
       <c r="G20">
-        <v>0.00406228588322044</v>
+        <v>0.003825135297171212</v>
       </c>
       <c r="H20">
-        <v>0.3721784727439632</v>
+        <v>0.3659102607385025</v>
       </c>
       <c r="I20">
-        <v>0.002733926817076016</v>
+        <v>0.002469450630970427</v>
       </c>
       <c r="J20">
-        <v>0.863686893591549</v>
+        <v>0.8480963590957024</v>
       </c>
       <c r="K20">
-        <v>0.001969757191544019</v>
+        <v>0.001896473623396844</v>
       </c>
       <c r="L20">
-        <v>0.6167867867867869</v>
+        <v>0.6029619565217391</v>
       </c>
       <c r="M20">
-        <v>0.0026980679251698</v>
+        <v>0.002614542096004535</v>
       </c>
       <c r="N20">
-        <v>0.6371655328798185</v>
+        <v>0.6222764227642276</v>
       </c>
       <c r="O20">
-        <v>0.002791591539231142</v>
+        <v>0.00259138625462485</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1365,46 +1371,46 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6321196196196196</v>
+        <v>0.6155393145161291</v>
       </c>
       <c r="C21">
-        <v>0.002842533018504234</v>
+        <v>0.003270919710465114</v>
       </c>
       <c r="D21">
-        <v>0.4032934048137566</v>
+        <v>0.3979872397754191</v>
       </c>
       <c r="E21">
-        <v>0.002545411964883226</v>
+        <v>0.002728385789862509</v>
       </c>
       <c r="F21">
-        <v>0.5910185185185187</v>
+        <v>0.5769354838709677</v>
       </c>
       <c r="G21">
-        <v>0.004822530811157355</v>
+        <v>0.004335800418565405</v>
       </c>
       <c r="H21">
-        <v>0.3063108403382847</v>
+        <v>0.3039519229818618</v>
       </c>
       <c r="I21">
-        <v>0.002311375672578331</v>
+        <v>0.002481679929663638</v>
       </c>
       <c r="J21">
-        <v>0.8099169763117492</v>
+        <v>0.7952969340683869</v>
       </c>
       <c r="K21">
-        <v>0.001711431920011441</v>
+        <v>0.001934370394539919</v>
       </c>
       <c r="L21">
-        <v>0.5652852852852852</v>
+        <v>0.5541847826086955</v>
       </c>
       <c r="M21">
-        <v>0.005024826339897426</v>
+        <v>0.004743962936901158</v>
       </c>
       <c r="N21">
-        <v>0.5715873015873015</v>
+        <v>0.559918699186992</v>
       </c>
       <c r="O21">
-        <v>0.003430339809191274</v>
+        <v>0.003478024813296621</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1412,46 +1418,46 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5396435793731041</v>
+        <v>0.5568900298973092</v>
       </c>
       <c r="C22">
-        <v>0.005234786484418552</v>
+        <v>0.005089416373217359</v>
       </c>
       <c r="D22">
-        <v>0.3134400372387494</v>
+        <v>0.330758183530572</v>
       </c>
       <c r="E22">
-        <v>0.006238873756967911</v>
+        <v>0.005205029195785638</v>
       </c>
       <c r="F22">
-        <v>0.4481395348837209</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="G22">
-        <v>0.01450133986939328</v>
+        <v>0.008640588961172091</v>
       </c>
       <c r="H22">
-        <v>0.2419797327440567</v>
+        <v>0.2571694487005825</v>
       </c>
       <c r="I22">
-        <v>0.004030390747023604</v>
+        <v>0.004031978405141579</v>
       </c>
       <c r="J22">
-        <v>0.7671410495564899</v>
+        <v>0.7765944516144736</v>
       </c>
       <c r="K22">
-        <v>0.003295473943785932</v>
+        <v>0.002978136158584221</v>
       </c>
       <c r="L22">
-        <v>0.5642028985507246</v>
+        <v>0.5812101910828025</v>
       </c>
       <c r="M22">
-        <v>0.009166923696694917</v>
+        <v>0.005707069688297484</v>
       </c>
       <c r="N22">
-        <v>0.5366298342541437</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="O22">
-        <v>0.004970593717880334</v>
+        <v>0.004450992160708767</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1459,46 +1465,46 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7827749229188078</v>
+        <v>0.7888785601265823</v>
       </c>
       <c r="C23">
-        <v>0.003989293014860285</v>
+        <v>0.003996461795022221</v>
       </c>
       <c r="D23">
-        <v>0.5437491006342072</v>
+        <v>0.5540703351792785</v>
       </c>
       <c r="E23">
-        <v>0.004559489962566055</v>
+        <v>0.004619125113350164</v>
       </c>
       <c r="F23">
-        <v>0.7833333333333333</v>
+        <v>0.7825000000000002</v>
       </c>
       <c r="G23">
-        <v>0.005873107948120571</v>
+        <v>0.005706202960661821</v>
       </c>
       <c r="H23">
-        <v>0.4165418324958502</v>
+        <v>0.4290053947232636</v>
       </c>
       <c r="I23">
-        <v>0.003998563525890342</v>
+        <v>0.00409283531811705</v>
       </c>
       <c r="J23">
-        <v>0.9106921471025441</v>
+        <v>0.9117556151211779</v>
       </c>
       <c r="K23">
-        <v>0.002452650693230973</v>
+        <v>0.00234417011349175</v>
       </c>
       <c r="L23">
-        <v>0.6679136690647484</v>
+        <v>0.6831012658227847</v>
       </c>
       <c r="M23">
-        <v>0.003953697990272342</v>
+        <v>0.003728204084425979</v>
       </c>
       <c r="N23">
-        <v>0.6946961325966851</v>
+        <v>0.7062621359223301</v>
       </c>
       <c r="O23">
-        <v>0.003799511274191314</v>
+        <v>0.003690078886176118</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1506,46 +1512,46 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6588152545129289</v>
+        <v>0.6241564417177914</v>
       </c>
       <c r="C24">
-        <v>0.0062225822575116</v>
+        <v>0.005332802850508189</v>
       </c>
       <c r="D24">
-        <v>0.4414554883192515</v>
+        <v>0.4151670451702414</v>
       </c>
       <c r="E24">
-        <v>0.005532765962289521</v>
+        <v>0.00512654443421523</v>
       </c>
       <c r="F24">
-        <v>0.6474418604651165</v>
+        <v>0.6022</v>
       </c>
       <c r="G24">
-        <v>0.0071763143564888</v>
+        <v>0.005693679129454177</v>
       </c>
       <c r="H24">
-        <v>0.3350394786816135</v>
+        <v>0.3170048185764434</v>
       </c>
       <c r="I24">
-        <v>0.004617887136859566</v>
+        <v>0.004639725835581587</v>
       </c>
       <c r="J24">
-        <v>0.8523070383524495</v>
+        <v>0.8307729381895497</v>
       </c>
       <c r="K24">
-        <v>0.003290852125426347</v>
+        <v>0.002968704097246366</v>
       </c>
       <c r="L24">
-        <v>0.6127272727272727</v>
+        <v>0.6004907975460123</v>
       </c>
       <c r="M24">
-        <v>0.004917777695697234</v>
+        <v>0.006014267563571152</v>
       </c>
       <c r="N24">
-        <v>0.620752688172043</v>
+        <v>0.6008920187793428</v>
       </c>
       <c r="O24">
-        <v>0.004916564361943654</v>
+        <v>0.005390549844402792</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1553,46 +1559,46 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.650383022774327</v>
+        <v>0.6603815021231424</v>
       </c>
       <c r="C25">
-        <v>0.005359533388244131</v>
+        <v>0.004721257054223882</v>
       </c>
       <c r="D25">
-        <v>0.4240402893163687</v>
+        <v>0.4306413673174148</v>
       </c>
       <c r="E25">
-        <v>0.005992312901975105</v>
+        <v>0.00471350047871627</v>
       </c>
       <c r="F25">
-        <v>0.6278571428571429</v>
+        <v>0.6383333333333333</v>
       </c>
       <c r="G25">
-        <v>0.006999421122474647</v>
+        <v>0.006915149285303568</v>
       </c>
       <c r="H25">
-        <v>0.3205902668751158</v>
+        <v>0.3254298544495605</v>
       </c>
       <c r="I25">
-        <v>0.005489781637550817</v>
+        <v>0.004419003354615147</v>
       </c>
       <c r="J25">
-        <v>0.838941811732266</v>
+        <v>0.8427999776360919</v>
       </c>
       <c r="K25">
-        <v>0.003568552329666019</v>
+        <v>0.002769057875075087</v>
       </c>
       <c r="L25">
-        <v>0.5923913043478261</v>
+        <v>0.5935668789808917</v>
       </c>
       <c r="M25">
-        <v>0.00843456334420567</v>
+        <v>0.00765856512905172</v>
       </c>
       <c r="N25">
-        <v>0.6006666666666667</v>
+        <v>0.6040487804878047</v>
       </c>
       <c r="O25">
-        <v>0.007030175076266465</v>
+        <v>0.005794503572882692</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1600,46 +1606,46 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7257487437185928</v>
+        <v>0.7295038019107039</v>
       </c>
       <c r="C26">
-        <v>0.003658284780915788</v>
+        <v>0.003097628266038654</v>
       </c>
       <c r="D26">
-        <v>0.5085984911187222</v>
+        <v>0.5182277147541712</v>
       </c>
       <c r="E26">
-        <v>0.004161473768588775</v>
+        <v>0.004157670231713873</v>
       </c>
       <c r="F26">
-        <v>0.6151249999999999</v>
+        <v>0.6094565217391305</v>
       </c>
       <c r="G26">
-        <v>0.00537299578783812</v>
+        <v>0.004370381485631514</v>
       </c>
       <c r="H26">
-        <v>0.4342460249157416</v>
+        <v>0.4508793033802651</v>
       </c>
       <c r="I26">
-        <v>0.004881614034319359</v>
+        <v>0.004154798195703913</v>
       </c>
       <c r="J26">
-        <v>0.8137352143346195</v>
+        <v>0.8113698186130494</v>
       </c>
       <c r="K26">
-        <v>0.002262723772495479</v>
+        <v>0.002259169265086514</v>
       </c>
       <c r="L26">
-        <v>0.6762814070351757</v>
+        <v>0.6933632286995514</v>
       </c>
       <c r="M26">
-        <v>0.006623349809222412</v>
+        <v>0.003536095381099669</v>
       </c>
       <c r="N26">
-        <v>0.6587455197132617</v>
+        <v>0.6688571428571428</v>
       </c>
       <c r="O26">
-        <v>0.004589363187528783</v>
+        <v>0.003413600163478026</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1647,46 +1653,46 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7681956127329707</v>
+        <v>0.7883814814814815</v>
       </c>
       <c r="C27">
-        <v>0.004778052810001543</v>
+        <v>0.003976245217889862</v>
       </c>
       <c r="D27">
-        <v>0.5562383017665984</v>
+        <v>0.5784179579674437</v>
       </c>
       <c r="E27">
-        <v>0.00605191242017411</v>
+        <v>0.004682702915484782</v>
       </c>
       <c r="F27">
-        <v>0.7497674418604648</v>
+        <v>0.7688000000000001</v>
       </c>
       <c r="G27">
-        <v>0.006260729729462011</v>
+        <v>0.005535728585877697</v>
       </c>
       <c r="H27">
-        <v>0.4423893350574052</v>
+        <v>0.4637614496798202</v>
       </c>
       <c r="I27">
-        <v>0.005793225178568007</v>
+        <v>0.004314067602797012</v>
       </c>
       <c r="J27">
-        <v>0.9028822377933042</v>
+        <v>0.9103816108591419</v>
       </c>
       <c r="K27">
-        <v>0.00260708111268193</v>
+        <v>0.002178617349778533</v>
       </c>
       <c r="L27">
-        <v>0.7107092198581562</v>
+        <v>0.7251851851851854</v>
       </c>
       <c r="M27">
-        <v>0.005049375855158966</v>
+        <v>0.003483870133752842</v>
       </c>
       <c r="N27">
-        <v>0.7198369565217391</v>
+        <v>0.7354716981132075</v>
       </c>
       <c r="O27">
-        <v>0.004884070972225096</v>
+        <v>0.003498672603551967</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1694,46 +1700,46 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.7674727891156463</v>
+        <v>0.7752312631027253</v>
       </c>
       <c r="C28">
-        <v>0.00402820963671735</v>
+        <v>0.003679943272319908</v>
       </c>
       <c r="D28">
-        <v>0.5221408461889996</v>
+        <v>0.5350815328141354</v>
       </c>
       <c r="E28">
-        <v>0.00484223813439888</v>
+        <v>0.00451446252311416</v>
       </c>
       <c r="F28">
-        <v>0.74</v>
+        <v>0.7585416666666669</v>
       </c>
       <c r="G28">
-        <v>0.006215513221505486</v>
+        <v>0.005848859510247273</v>
       </c>
       <c r="H28">
-        <v>0.4035489565507608</v>
+        <v>0.4134123816643496</v>
       </c>
       <c r="I28">
-        <v>0.004259195335464483</v>
+        <v>0.003840279042379546</v>
       </c>
       <c r="J28">
-        <v>0.8958548079177959</v>
+        <v>0.9024567399697438</v>
       </c>
       <c r="K28">
-        <v>0.002518860671208989</v>
+        <v>0.002408792075585531</v>
       </c>
       <c r="L28">
-        <v>0.6712857142857142</v>
+        <v>0.6747169811320756</v>
       </c>
       <c r="M28">
-        <v>0.004058923256523128</v>
+        <v>0.003337644906878157</v>
       </c>
       <c r="N28">
-        <v>0.6871428571428573</v>
+        <v>0.6941545893719808</v>
       </c>
       <c r="O28">
-        <v>0.003934906504481028</v>
+        <v>0.003504653909692568</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1741,46 +1747,46 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.7838024691358025</v>
+        <v>0.773009200793794</v>
       </c>
       <c r="C29">
-        <v>0.003418097893933103</v>
+        <v>0.002974670406089674</v>
       </c>
       <c r="D29">
-        <v>0.4993732358561511</v>
+        <v>0.4996247820902253</v>
       </c>
       <c r="E29">
-        <v>0.004380073767782516</v>
+        <v>0.003518460759401015</v>
       </c>
       <c r="F29">
-        <v>0.7168333333333333</v>
+        <v>0.7091304347826087</v>
       </c>
       <c r="G29">
-        <v>0.004641159325858735</v>
+        <v>0.004193327991569573</v>
       </c>
       <c r="H29">
-        <v>0.3832842195123838</v>
+        <v>0.3857690063138247</v>
       </c>
       <c r="I29">
-        <v>0.004029166545927776</v>
+        <v>0.003151666165968126</v>
       </c>
       <c r="J29">
-        <v>0.8960576701089067</v>
+        <v>0.8903216118446465</v>
       </c>
       <c r="K29">
-        <v>0.001893255868624988</v>
+        <v>0.001663471435979447</v>
       </c>
       <c r="L29">
-        <v>0.6788888888888889</v>
+        <v>0.6763485477178424</v>
       </c>
       <c r="M29">
-        <v>0.00396355772473056</v>
+        <v>0.003049329818796354</v>
       </c>
       <c r="N29">
-        <v>0.6871376811594204</v>
+        <v>0.6836451612903227</v>
       </c>
       <c r="O29">
-        <v>0.003784038863037353</v>
+        <v>0.002932823473353996</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1788,46 +1794,46 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.7239281288723667</v>
+        <v>0.7202849002849002</v>
       </c>
       <c r="C30">
-        <v>0.004194476963940597</v>
+        <v>0.003871295925916618</v>
       </c>
       <c r="D30">
-        <v>0.4147114695414091</v>
+        <v>0.4322957358291384</v>
       </c>
       <c r="E30">
-        <v>0.003162394491268816</v>
+        <v>0.00305416064322378</v>
       </c>
       <c r="F30">
-        <v>0.6527272727272728</v>
+        <v>0.6692307692307696</v>
       </c>
       <c r="G30">
-        <v>0.004201563595011337</v>
+        <v>0.003722587254316956</v>
       </c>
       <c r="H30">
-        <v>0.3039923630099512</v>
+        <v>0.3193403708748049</v>
       </c>
       <c r="I30">
-        <v>0.002696940054810137</v>
+        <v>0.002647320027241606</v>
       </c>
       <c r="J30">
-        <v>0.8812782167478368</v>
+        <v>0.8778832555912329</v>
       </c>
       <c r="K30">
-        <v>0.001519605148067482</v>
+        <v>0.001532758644477106</v>
       </c>
       <c r="L30">
-        <v>0.632825278810409</v>
+        <v>0.6249158249158249</v>
       </c>
       <c r="M30">
-        <v>0.003422814314043454</v>
+        <v>0.003257754386330358</v>
       </c>
       <c r="N30">
-        <v>0.6367462686567165</v>
+        <v>0.6341333333333332</v>
       </c>
       <c r="O30">
-        <v>0.00307792413319008</v>
+        <v>0.002992235325571246</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1835,46 +1841,46 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6543057203389832</v>
+        <v>0.6669717086283766</v>
       </c>
       <c r="C31">
-        <v>0.003171443117757966</v>
+        <v>0.003609821929103085</v>
       </c>
       <c r="D31">
-        <v>0.4063657728094182</v>
+        <v>0.4267118618024376</v>
       </c>
       <c r="E31">
-        <v>0.00279549995324796</v>
+        <v>0.003244307685949854</v>
       </c>
       <c r="F31">
-        <v>0.65325</v>
+        <v>0.6611827956989248</v>
       </c>
       <c r="G31">
-        <v>0.00486721803613388</v>
+        <v>0.004163451643166782</v>
       </c>
       <c r="H31">
-        <v>0.2952172168093517</v>
+        <v>0.3151101302498054</v>
       </c>
       <c r="I31">
-        <v>0.0027243611522203</v>
+        <v>0.002810118336286749</v>
       </c>
       <c r="J31">
-        <v>0.8595524208493381</v>
+        <v>0.8602570480477882</v>
       </c>
       <c r="K31">
-        <v>0.001576390811197981</v>
+        <v>0.00186523653602455</v>
       </c>
       <c r="L31">
-        <v>0.5758305084745763</v>
+        <v>0.5919207317073171</v>
       </c>
       <c r="M31">
-        <v>0.006348437472791679</v>
+        <v>0.004062527254082626</v>
       </c>
       <c r="N31">
-        <v>0.5923466666666666</v>
+        <v>0.6072209026128266</v>
       </c>
       <c r="O31">
-        <v>0.004590464218169221</v>
+        <v>0.003518378262142519</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1882,46 +1888,46 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.691281877438386</v>
+        <v>0.6911517042279754</v>
       </c>
       <c r="C32">
-        <v>0.002534858644197224</v>
+        <v>0.002982625143286177</v>
       </c>
       <c r="D32">
-        <v>0.4454196181203918</v>
+        <v>0.4611672126556017</v>
       </c>
       <c r="E32">
-        <v>0.003167489607052265</v>
+        <v>0.003379665353363481</v>
       </c>
       <c r="F32">
-        <v>0.5516814159292034</v>
+        <v>0.5846153846153845</v>
       </c>
       <c r="G32">
-        <v>0.004795685800052962</v>
+        <v>0.004937511085148505</v>
       </c>
       <c r="H32">
-        <v>0.3736688414517622</v>
+        <v>0.3808805062882573</v>
       </c>
       <c r="I32">
-        <v>0.00272678711458213</v>
+        <v>0.002800747928506764</v>
       </c>
       <c r="J32">
-        <v>0.8407836388500119</v>
+        <v>0.8427993901137312</v>
       </c>
       <c r="K32">
-        <v>0.00144928126491628</v>
+        <v>0.001659805610186083</v>
       </c>
       <c r="L32">
-        <v>0.718951612903226</v>
+        <v>0.7007990314769976</v>
       </c>
       <c r="M32">
-        <v>0.002591401728230025</v>
+        <v>0.002304872870603103</v>
       </c>
       <c r="N32">
-        <v>0.6799793814432992</v>
+        <v>0.6729834254143647</v>
       </c>
       <c r="O32">
-        <v>0.002137567818235042</v>
+        <v>0.002185267673773361</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1929,46 +1935,46 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6178177429566317</v>
+        <v>0.6301300408213755</v>
       </c>
       <c r="C33">
-        <v>0.003978782153609361</v>
+        <v>0.004083911478404367</v>
       </c>
       <c r="D33">
-        <v>0.3802585800498296</v>
+        <v>0.4027531931746253</v>
       </c>
       <c r="E33">
-        <v>0.005496165007741582</v>
+        <v>0.005368531667850285</v>
       </c>
       <c r="F33">
-        <v>0.575679012345679</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="G33">
-        <v>0.01726084274777706</v>
+        <v>0.01244112898121497</v>
       </c>
       <c r="H33">
-        <v>0.2912660846265258</v>
+        <v>0.3230180956893932</v>
       </c>
       <c r="I33">
-        <v>0.008393439565525462</v>
+        <v>0.007715878647193419</v>
       </c>
       <c r="J33">
-        <v>0.8461557605249559</v>
+        <v>0.8437328591394677</v>
       </c>
       <c r="K33">
-        <v>0.002300521129399824</v>
+        <v>0.002254620417809661</v>
       </c>
       <c r="L33">
-        <v>0.6135576923076923</v>
+        <v>0.6706395348837211</v>
       </c>
       <c r="M33">
-        <v>0.02896244663680603</v>
+        <v>0.02272467964462255</v>
       </c>
       <c r="N33">
-        <v>0.6057506361323155</v>
+        <v>0.6447488584474885</v>
       </c>
       <c r="O33">
-        <v>0.01965894252218225</v>
+        <v>0.015459154346944</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1976,46 +1982,46 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6523281972265024</v>
+        <v>0.6659035691674581</v>
       </c>
       <c r="C34">
-        <v>0.004072254992059987</v>
+        <v>0.003593263722334594</v>
       </c>
       <c r="D34">
-        <v>0.3548163453860926</v>
+        <v>0.3769411454299418</v>
       </c>
       <c r="E34">
-        <v>0.003550373208593305</v>
+        <v>0.003432071562526451</v>
       </c>
       <c r="F34">
-        <v>0.6133333333333334</v>
+        <v>0.6074358974358973</v>
       </c>
       <c r="G34">
-        <v>0.006988569328133742</v>
+        <v>0.006197307799781226</v>
       </c>
       <c r="H34">
-        <v>0.2496706570056504</v>
+        <v>0.2733297905389281</v>
       </c>
       <c r="I34">
-        <v>0.002476690301070852</v>
+        <v>0.002513378240244446</v>
       </c>
       <c r="J34">
-        <v>0.8717351345954185</v>
+        <v>0.8661053921863785</v>
       </c>
       <c r="K34">
-        <v>0.002088069410634219</v>
+        <v>0.001930897258769382</v>
       </c>
       <c r="L34">
-        <v>0.5875932203389831</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="M34">
-        <v>0.002805573130266636</v>
+        <v>0.002841974312811524</v>
       </c>
       <c r="N34">
-        <v>0.5922991689750691</v>
+        <v>0.6103980099502487</v>
       </c>
       <c r="O34">
-        <v>0.002607930471543285</v>
+        <v>0.002611605939283002</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2023,46 +2029,46 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6255554677623262</v>
+        <v>0.6155558768716662</v>
       </c>
       <c r="C35">
-        <v>0.004061794751909487</v>
+        <v>0.004085017943142866</v>
       </c>
       <c r="D35">
-        <v>0.3781668136480114</v>
+        <v>0.3769663182261264</v>
       </c>
       <c r="E35">
-        <v>0.003203226295373396</v>
+        <v>0.003536899449310127</v>
       </c>
       <c r="F35">
-        <v>0.6623214285714286</v>
+        <v>0.6379365079365079</v>
       </c>
       <c r="G35">
-        <v>0.006509989025216822</v>
+        <v>0.006901699239410863</v>
       </c>
       <c r="H35">
-        <v>0.2647694441567952</v>
+        <v>0.2676547883192191</v>
       </c>
       <c r="I35">
-        <v>0.002410248385430191</v>
+        <v>0.002611364481972522</v>
       </c>
       <c r="J35">
-        <v>0.8667093772991237</v>
+        <v>0.8572901345007224</v>
       </c>
       <c r="K35">
-        <v>0.00225994371713123</v>
+        <v>0.002390070390189569</v>
       </c>
       <c r="L35">
-        <v>0.5438495575221239</v>
+        <v>0.554493927125506</v>
       </c>
       <c r="M35">
-        <v>0.004355306237117551</v>
+        <v>0.004064098253525716</v>
       </c>
       <c r="N35">
-        <v>0.5673758865248226</v>
+        <v>0.5714516129032259</v>
       </c>
       <c r="O35">
-        <v>0.003468728123289022</v>
+        <v>0.003350539563620525</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2070,46 +2076,46 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6867271997246758</v>
+        <v>0.6891285356247761</v>
       </c>
       <c r="C36">
-        <v>0.002780230949072204</v>
+        <v>0.002486691253586915</v>
       </c>
       <c r="D36">
-        <v>0.4477034398539718</v>
+        <v>0.4549843732292277</v>
       </c>
       <c r="E36">
-        <v>0.002550062801715158</v>
+        <v>0.002437458764575517</v>
       </c>
       <c r="F36">
-        <v>0.6814782608695654</v>
+        <v>0.6880451127819549</v>
       </c>
       <c r="G36">
-        <v>0.004472864516107622</v>
+        <v>0.00439454555958263</v>
       </c>
       <c r="H36">
-        <v>0.3334352528648941</v>
+        <v>0.3399485845256042</v>
       </c>
       <c r="I36">
-        <v>0.002028102232075057</v>
+        <v>0.001953879819422799</v>
       </c>
       <c r="J36">
-        <v>0.8585440465104895</v>
+        <v>0.8538243850606438</v>
       </c>
       <c r="K36">
-        <v>0.001755248707887902</v>
+        <v>0.001768893612053235</v>
       </c>
       <c r="L36">
-        <v>0.5864379947229552</v>
+        <v>0.5767857142857142</v>
       </c>
       <c r="M36">
-        <v>0.002947177005866886</v>
+        <v>0.002904033421328611</v>
       </c>
       <c r="N36">
-        <v>0.6085627530364373</v>
+        <v>0.6035443037974684</v>
       </c>
       <c r="O36">
-        <v>0.002387325704720111</v>
+        <v>0.002281951852021957</v>
       </c>
     </row>
   </sheetData>
